--- a/biology/Zoologie/Gluviopsis_balfouri/Gluviopsis_balfouri.xlsx
+++ b/biology/Zoologie/Gluviopsis_balfouri/Gluviopsis_balfouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gluviopsis balfouri est une espèce de solifuges de la famille des Daesiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Socotra au Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Socotra au Yémen.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle décrite par Roewer en 1933 mesure 13 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle décrite par Roewer en 1933 mesure 13 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pocock, 1895 : Notes on some of the Solifugae contained in the collection of the British Museum, with descriptions of new species. Annals and Magazine of Natural History, sér. 6, vol. 16, p. 74–98 (texte intégral).</t>
         </is>
